--- a/data/trans_camb/P1403-Provincia-trans_camb.xlsx
+++ b/data/trans_camb/P1403-Provincia-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-7.805090586680199</v>
+        <v>-7.484498903910458</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-7.736611073002021</v>
+        <v>-6.866789060133259</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>2.221700948561696</v>
+        <v>2.503447391227797</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-5.715984106066129</v>
+        <v>-5.425948069868676</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-8.775306030929622</v>
+        <v>-8.077140613870977</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-1.1611798942292</v>
+        <v>-1.155217240032993</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-5.071796226966239</v>
+        <v>-4.930892664851396</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>-6.333921361126739</v>
+        <v>-6.36548888417806</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>2.359803044959175</v>
+        <v>2.69650837369968</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>3.385652084329389</v>
+        <v>3.315043624038014</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>3.756742936322513</v>
+        <v>4.292696936625199</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>14.32699641324456</v>
+        <v>13.64092120194531</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>6.886556989019417</v>
+        <v>7.302660388287115</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.880149111269217</v>
+        <v>3.030823138437746</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>9.132867194263529</v>
+        <v>9.786697326043003</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.042884869236866</v>
+        <v>3.301317529115989</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>1.526557424668767</v>
+        <v>1.664491927118845</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>10.34366160726828</v>
+        <v>10.57404715642531</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.4892310040579221</v>
+        <v>-0.4682925532660346</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.4855035599135243</v>
+        <v>-0.4483201289578959</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>0.1314873534945544</v>
+        <v>0.1472604195190883</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.3277776963928744</v>
+        <v>-0.3112112467765056</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.4993541413644406</v>
+        <v>-0.4925665812962412</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.06649844454887469</v>
+        <v>-0.07143588116832902</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3156512465630256</v>
+        <v>-0.3037481481639362</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.3911685395928831</v>
+        <v>-0.4027603590863453</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.1410352170297113</v>
+        <v>0.169217202956107</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.3235117187035095</v>
+        <v>0.3159925611210069</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.3568088572774135</v>
+        <v>0.4309778164869415</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.339822850140098</v>
+        <v>1.319116349027734</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>0.5711973561780385</v>
+        <v>0.6493880277839885</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2398597247177752</v>
+        <v>0.2666032218490504</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.8005402848257409</v>
+        <v>0.9292355824552444</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.258656131973281</v>
+        <v>0.271846090037024</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.1375312833553962</v>
+        <v>0.1264647378655755</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.8739359153963283</v>
+        <v>0.9569306140779392</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>7.117388358351316</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>7.029923489138214</v>
+        <v>7.029923489138216</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>2.549143953560531</v>
@@ -869,7 +869,7 @@
         <v>5.074481853023874</v>
       </c>
       <c r="H10" s="5" t="n">
-        <v>-1.538764760101238</v>
+        <v>-1.538764760101236</v>
       </c>
       <c r="I10" s="5" t="n">
         <v>4.510506850678614</v>
@@ -878,7 +878,7 @@
         <v>6.111802213630421</v>
       </c>
       <c r="K10" s="5" t="n">
-        <v>2.698131307957147</v>
+        <v>2.698131307957139</v>
       </c>
     </row>
     <row r="11">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>2.004195001961193</v>
+        <v>2.471013526234863</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>2.775937123437791</v>
+        <v>2.95763664103643</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>2.591090852829236</v>
+        <v>2.776934717032822</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-2.509514583610413</v>
+        <v>-2.225277948205536</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9899546276761009</v>
+        <v>-0.1730708686996506</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-5.511526923226608</v>
+        <v>-5.567616188911088</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.29540757863831</v>
+        <v>1.447178094175802</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>2.668783351311969</v>
+        <v>2.759855197548355</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>-0.3645764539775188</v>
+        <v>-0.4907637772064632</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>11.23416051130014</v>
+        <v>11.27444459750406</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>11.78791659643694</v>
+        <v>11.72153258232507</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>11.27933277428386</v>
+        <v>11.50903563239289</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>7.938248272851191</v>
+        <v>7.732452784751459</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>9.785091547886935</v>
+        <v>10.17429358494508</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.747705766025657</v>
+        <v>2.609767973626948</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>7.962698465337979</v>
+        <v>7.862932511606094</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>9.579319633027286</v>
+        <v>9.380745358252467</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>6.023506408264201</v>
+        <v>5.875865196607726</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.7464226397094206</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.7372499270130171</v>
+        <v>0.7372499270130174</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.1454905172927738</v>
@@ -974,7 +974,7 @@
         <v>0.2896223215476031</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>-0.08782386754828829</v>
+        <v>-0.08782386754828814</v>
       </c>
       <c r="I13" s="6" t="n">
         <v>0.3323457572894055</v>
@@ -983,7 +983,7 @@
         <v>0.450333322248799</v>
       </c>
       <c r="K13" s="6" t="n">
-        <v>0.1988052612478263</v>
+        <v>0.1988052612478257</v>
       </c>
     </row>
     <row r="14">
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>0.1672717985677587</v>
+        <v>0.2096209176108152</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.2155802018858389</v>
+        <v>0.2446292243525058</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.2272477555748089</v>
+        <v>0.2128851311585611</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.1242946856616779</v>
+        <v>-0.1133069015389667</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.05004591664626991</v>
+        <v>-0.01138784532282136</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.2760206286398925</v>
+        <v>-0.2775051646059828</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.07937899107690768</v>
+        <v>0.08964345309240954</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1681435909967313</v>
+        <v>0.1730470773509939</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>-0.03094230769226577</v>
+        <v>-0.0329974490385046</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.47838786775703</v>
+        <v>1.474279640493367</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.522552257711852</v>
+        <v>1.532783600821105</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.479660366117066</v>
+        <v>1.417238613759889</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.5143576545910296</v>
+        <v>0.5196186672996227</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6401074268483353</v>
+        <v>0.6845689535312224</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.1806807938589129</v>
+        <v>0.1751948497162265</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6567877800428368</v>
+        <v>0.6439847182004244</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.783533118262134</v>
+        <v>0.7584679818370003</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.5011605687242444</v>
+        <v>0.5036826027752661</v>
       </c>
     </row>
     <row r="16">
@@ -1074,7 +1074,7 @@
         <v>0.3113607099906546</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5.560792091308847</v>
+        <v>5.560792091308853</v>
       </c>
       <c r="F16" s="5" t="n">
         <v>1.72603329579134</v>
@@ -1083,7 +1083,7 @@
         <v>-5.967430015048139</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>0.8003810006633832</v>
+        <v>0.8003810006633888</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>2.855488927259317</v>
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.277659389081125</v>
+        <v>-1.633461878084882</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-5.187877957300988</v>
+        <v>-4.91855092507224</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3162330808034088</v>
+        <v>-0.06849983931402059</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-4.164677462816086</v>
+        <v>-5.150700923250491</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-11.85475704791246</v>
+        <v>-11.15172563147306</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-5.235273706745123</v>
+        <v>-4.829347901428937</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.716254316053001</v>
+        <v>-1.946404383769678</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-6.99415199406183</v>
+        <v>-7.184481062453512</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-0.9534184410346452</v>
+        <v>-0.7740806255962869</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>9.938212084237433</v>
+        <v>9.856211433201393</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>5.680648292067474</v>
+        <v>6.499027641054172</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>11.08930705734123</v>
+        <v>10.72201839844239</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>8.536418249264248</v>
+        <v>7.92417593404508</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.005383906272280645</v>
+        <v>0.3081516547558086</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>5.997508952993439</v>
+        <v>6.551217825680093</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.907047225298345</v>
+        <v>7.167633879409668</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.219767362487253</v>
+        <v>1.006602188480515</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.0204387667339</v>
+        <v>7.077589288165447</v>
       </c>
     </row>
     <row r="19">
@@ -1179,7 +1179,7 @@
         <v>0.02151524078982057</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>0.3842545863613644</v>
+        <v>0.3842545863613648</v>
       </c>
       <c r="F19" s="6" t="n">
         <v>0.08179541545096172</v>
@@ -1188,7 +1188,7 @@
         <v>-0.2827920054877137</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.0379294516669812</v>
+        <v>0.03792945166698146</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.159786300067487</v>
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.1280009000713783</v>
+        <v>-0.1006695048344005</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.3057367860051124</v>
+        <v>-0.2857161905881573</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.01463601258103957</v>
+        <v>-0.01427529708700863</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.1838404066841187</v>
+        <v>-0.2106778104613628</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.4964126992396405</v>
+        <v>-0.4780881143453457</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.2099289908202866</v>
+        <v>-0.1991120969462619</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.07970505219090857</v>
+        <v>-0.1014374184063896</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3446912357464872</v>
+        <v>-0.357211979501883</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.04618804706600557</v>
+        <v>-0.04235162215916472</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>0.8538761084521606</v>
+        <v>0.8547693268905522</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.4854149242615967</v>
+        <v>0.5767177520073842</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.951370285354104</v>
+        <v>0.8880959143583432</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.4573861670189293</v>
+        <v>0.4383163697486162</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.006729774055530249</v>
+        <v>0.02040934872727831</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>0.3409099767709847</v>
+        <v>0.3712256086001244</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.4537253802648422</v>
+        <v>0.45503327264747</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.07947044867287265</v>
+        <v>0.06248448827639722</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.448454453823422</v>
+        <v>0.4587681328564514</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>1.779116233482616</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>4.214979413934305</v>
+        <v>4.214979413934302</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-1.697111207407613</v>
+        <v>-1.928144933118372</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-2.782173903982852</v>
+        <v>-3.063084846048121</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-0.8462592424981435</v>
+        <v>-1.019650238046613</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9418382136429176</v>
+        <v>0.5396703330929427</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-4.509081703795672</v>
+        <v>-4.692168287939743</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-1.470858976749062</v>
+        <v>-1.422829047878574</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.256183013989658</v>
+        <v>1.240807903414847</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-2.116724313777187</v>
+        <v>-2.166081609638081</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.7757367599529975</v>
+        <v>0.5117449311422781</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>9.512122055755567</v>
+        <v>9.635966230021642</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>7.783604170923142</v>
+        <v>7.807621123418312</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>10.11794928672692</v>
+        <v>10.47801523034422</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>12.53473492805781</v>
+        <v>12.79974112510339</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>7.233027754901997</v>
+        <v>6.848594777909309</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>8.137209656879367</v>
+        <v>8.450822554168754</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>9.579206236989483</v>
+        <v>9.412638862793248</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>5.463004062425165</v>
+        <v>5.632105307238104</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>8.178687243662813</v>
+        <v>7.865486603442184</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1067488385160103</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.2529031821184701</v>
+        <v>0.25290318211847</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.1075169693054338</v>
+        <v>-0.1238742834447534</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.1680659418073625</v>
+        <v>-0.1948887860556636</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.05434094692165829</v>
+        <v>-0.06358964817898217</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.04007885312149326</v>
+        <v>0.02499486460481024</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.2084871836539526</v>
+        <v>-0.2195627570733336</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.06665053331999146</v>
+        <v>-0.07034825601013371</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.06472827026797838</v>
+        <v>0.06311172099090545</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.116612397708305</v>
+        <v>-0.1177141183036569</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.0341582610584544</v>
+        <v>0.0255842198079116</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.7626761414281132</v>
+        <v>0.7992350387219863</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6311771026606677</v>
+        <v>0.6475813926174265</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8340136813596932</v>
+        <v>0.8730102196425847</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7805704710393843</v>
+        <v>0.8190388095174151</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.432734130632234</v>
+        <v>0.4481505494843318</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.5165007284964207</v>
+        <v>0.5405248155321427</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.6350676034153194</v>
+        <v>0.6425833352409336</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.362850605278869</v>
+        <v>0.3829275796825369</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.5535675972973468</v>
+        <v>0.5209936373254797</v>
       </c>
     </row>
     <row r="28">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>1.536535248430753</v>
+        <v>1.782008575377452</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>-1.234896633155397</v>
+        <v>-0.7731993885966558</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>9.39430838239792</v>
+        <v>9.004571024560283</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>3.776182619682261</v>
+        <v>3.70289612153362</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>-2.363853268659485</v>
+        <v>-2.317109452189456</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>6.230281343768035</v>
+        <v>5.974318089433712</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>4.347839940141371</v>
+        <v>4.400874957199663</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.25678340395898</v>
+        <v>0.604986247510294</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>9.292018299137631</v>
+        <v>9.675541874859301</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>13.39713643911653</v>
+        <v>14.43318310560463</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>10.26248032500176</v>
+        <v>11.25366104830817</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>21.1041597720468</v>
+        <v>20.73383422169822</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>19.23548846644115</v>
+        <v>19.37550577041884</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>12.55232611204379</v>
+        <v>12.76886781968493</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>18.74495178808863</v>
+        <v>19.11417426683695</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>14.33489723120438</v>
+        <v>14.99615064911562</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>9.78428951172102</v>
+        <v>9.639032623261192</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>17.76527845125946</v>
+        <v>18.40906161150399</v>
       </c>
     </row>
     <row r="31">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>0.1032640452693947</v>
+        <v>0.1132525526963751</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>-0.1346086301685335</v>
+        <v>-0.1034491457106016</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>0.7661502985452896</v>
+        <v>0.7683106682850354</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.196327632517315</v>
+        <v>0.192941838734573</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>-0.1365587833612759</v>
+        <v>-0.149283740869649</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3055472673984538</v>
+        <v>0.3041725567735297</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3137692194848903</v>
+        <v>0.309035177204654</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.01512513552712241</v>
+        <v>0.04010219064511926</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.6655066229588067</v>
+        <v>0.6495588757805513</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>2.181683907788158</v>
+        <v>2.650727784527615</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.920827109948198</v>
+        <v>2.034219707341236</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>4.068581821581416</v>
+        <v>4.051744975233528</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.713236347533413</v>
+        <v>1.78225835897838</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.146577794643206</v>
+        <v>1.147857271045504</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>1.765308786657943</v>
+        <v>1.813464069721857</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>1.614700697415852</v>
+        <v>1.668857826083222</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.037278209801658</v>
+        <v>1.080126650566643</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>2.003253961038316</v>
+        <v>2.073612060051151</v>
       </c>
     </row>
     <row r="34">
@@ -1716,7 +1716,7 @@
         <v>-1.383304508476416</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>11.47479277311789</v>
+        <v>11.47479277311788</v>
       </c>
       <c r="F34" s="5" t="n">
         <v>3.867207426869945</v>
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>1.119674909002644</v>
+        <v>1.267741390281564</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-8.108440717509852</v>
+        <v>-7.184932493259052</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>4.992464798780859</v>
+        <v>5.2243897139872</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>-3.938888267039276</v>
+        <v>-2.961976926532272</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>-8.737867719229232</v>
+        <v>-8.156331528844122</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.612464724961647</v>
+        <v>-0.8619483682468621</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.046043179597174</v>
+        <v>1.067352013791234</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>-6.110753381626444</v>
+        <v>-5.767547130472527</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>4.048458799783168</v>
+        <v>3.603002193900415</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>14.7916705422067</v>
+        <v>15.56868165353669</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>4.485210636358973</v>
+        <v>4.377166767334164</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>17.46601548981466</v>
+        <v>17.91718761566415</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>10.95719412507926</v>
+        <v>10.39115018873357</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>4.723434129429862</v>
+        <v>4.95865861056916</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>10.95900368686597</v>
+        <v>10.76659273012129</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>10.83699511815488</v>
+        <v>10.53667809613007</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>2.937957680772731</v>
+        <v>2.847793385833151</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>12.18278646883453</v>
+        <v>12.16682255131376</v>
       </c>
     </row>
     <row r="37">
@@ -1821,7 +1821,7 @@
         <v>-0.09131729771702518</v>
       </c>
       <c r="E37" s="6" t="n">
-        <v>0.7574955922453284</v>
+        <v>0.757495592245328</v>
       </c>
       <c r="F37" s="6" t="n">
         <v>0.2040248507354657</v>
@@ -1850,31 +1850,31 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>0.05918565925949405</v>
+        <v>0.06322122172593861</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>-0.4188493607536798</v>
+        <v>-0.4053442857801826</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>0.2540220997599624</v>
+        <v>0.2733994128684556</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>-0.1655582893599072</v>
+        <v>-0.1275254030505652</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>-0.376770438590247</v>
+        <v>-0.3736720608274327</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.06708194504993463</v>
+        <v>-0.04221491325330875</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.0529721320430199</v>
+        <v>0.04987941169809613</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>-0.3211813642945168</v>
+        <v>-0.3032772801537496</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>0.195143576254935</v>
+        <v>0.1868207360911768</v>
       </c>
     </row>
     <row r="39">
@@ -1885,31 +1885,31 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>1.169330325192451</v>
+        <v>1.252445063624445</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>0.3699724260285956</v>
+        <v>0.3918177380624204</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>1.489749598996876</v>
+        <v>1.571776576561828</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>0.7119929075064861</v>
+        <v>0.6975786152460922</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.3009283198001967</v>
+        <v>0.3082166710354677</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.7335134381397237</v>
+        <v>0.70717520794107</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.7366184894339127</v>
+        <v>0.7129937958902934</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.1951298629869311</v>
+        <v>0.1932552201330661</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.8201663118242366</v>
+        <v>0.8373765807461145</v>
       </c>
     </row>
     <row r="40">
@@ -1939,7 +1939,7 @@
         <v>-3.103535925981832</v>
       </c>
       <c r="H40" s="5" t="n">
-        <v>3.917744766752318</v>
+        <v>3.91774476675231</v>
       </c>
       <c r="I40" s="5" t="n">
         <v>5.182253367536421</v>
@@ -1948,7 +1948,7 @@
         <v>-1.534434560247275</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>3.992855107193338</v>
+        <v>3.992855107193341</v>
       </c>
     </row>
     <row r="41">
@@ -1959,31 +1959,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.3212349667641515</v>
+        <v>0.6409394652014541</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>-4.034974300489918</v>
+        <v>-4.215859679831516</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>-0.1751217859536745</v>
+        <v>-0.3480164307895052</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.191925927758323</v>
+        <v>1.053709278510243</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>-7.354299266878241</v>
+        <v>-7.286413883571202</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.01537035900406201</v>
+        <v>-0.1563073295129965</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.916777208509806</v>
+        <v>1.956479501733537</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>-4.69541650811713</v>
+        <v>-4.35348684088779</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.109020639516545</v>
+        <v>1.055725382142561</v>
       </c>
     </row>
     <row r="42">
@@ -1994,31 +1994,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>8.980859994002229</v>
+        <v>9.193088291946415</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>4.042039525744155</v>
+        <v>3.984843315282271</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>8.228402047789169</v>
+        <v>7.981413869536394</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>10.03590697819947</v>
+        <v>9.943810052083943</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>0.9836157589313456</v>
+        <v>0.8864117534261701</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>7.905573545483374</v>
+        <v>7.961186296205793</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>8.173211056429915</v>
+        <v>8.319215186239767</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>1.156090014019243</v>
+        <v>1.608102668179127</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>6.894149678355559</v>
+        <v>6.734480315951498</v>
       </c>
     </row>
     <row r="43">
@@ -2044,7 +2044,7 @@
         <v>-0.178624218928754</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.2254860635138151</v>
+        <v>0.2254860635138146</v>
       </c>
       <c r="I43" s="6" t="n">
         <v>0.3265878717933609</v>
@@ -2053,7 +2053,7 @@
         <v>-0.09670073651292138</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.2516314736763706</v>
+        <v>0.2516314736763708</v>
       </c>
     </row>
     <row r="44">
@@ -2064,31 +2064,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.01869480847914984</v>
+        <v>0.03297970551693497</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>-0.2455143914775193</v>
+        <v>-0.2528025139221424</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>-0.01076711685473091</v>
+        <v>-0.02205174487079247</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.06015069417083772</v>
+        <v>0.04733026223272153</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>-0.3806396978777539</v>
+        <v>-0.3734023886083735</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>-0.002984266222675756</v>
+        <v>-0.01000874381541463</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1040687280618072</v>
+        <v>0.1135082700796875</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>-0.2759539261289176</v>
+        <v>-0.254631128517409</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.05626236782104758</v>
+        <v>0.05725923159058734</v>
       </c>
     </row>
     <row r="45">
@@ -2099,31 +2099,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.7432336636875094</v>
+        <v>0.7369558050493571</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.3346049771142275</v>
+        <v>0.3355716358192219</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.6865255200647388</v>
+        <v>0.6202036548011288</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.6641882366637113</v>
+        <v>0.6366500974570782</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.06735101448975983</v>
+        <v>0.05808447322807006</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.518920273642258</v>
+        <v>0.5237941939174878</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.5651408099506852</v>
+        <v>0.5957812504013456</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.07712198479363934</v>
+        <v>0.1046839860642693</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.4790106103657108</v>
+        <v>0.4770352484485752</v>
       </c>
     </row>
     <row r="46">
@@ -2153,7 +2153,7 @@
         <v>4.968541929275719</v>
       </c>
       <c r="H46" s="5" t="n">
-        <v>6.59130519605012</v>
+        <v>6.591305196050127</v>
       </c>
       <c r="I46" s="5" t="n">
         <v>1.839109445992831</v>
@@ -2173,31 +2173,31 @@
         </is>
       </c>
       <c r="C47" s="5" t="n">
-        <v>-2.525522775289098</v>
+        <v>-2.4058678699186</v>
       </c>
       <c r="D47" s="5" t="n">
-        <v>-0.578908283273925</v>
+        <v>-0.8862094076134268</v>
       </c>
       <c r="E47" s="5" t="n">
-        <v>-0.09672390551099175</v>
+        <v>-0.3595940761136024</v>
       </c>
       <c r="F47" s="5" t="n">
-        <v>-1.64871341511837</v>
+        <v>-1.09128987189274</v>
       </c>
       <c r="G47" s="5" t="n">
-        <v>1.000177003671909</v>
+        <v>1.320026783471909</v>
       </c>
       <c r="H47" s="5" t="n">
-        <v>2.979069290760568</v>
+        <v>3.133191969907476</v>
       </c>
       <c r="I47" s="5" t="n">
-        <v>-0.7372341852227874</v>
+        <v>-0.8043480083025939</v>
       </c>
       <c r="J47" s="5" t="n">
-        <v>1.605361041234399</v>
+        <v>1.346766380199971</v>
       </c>
       <c r="K47" s="5" t="n">
-        <v>2.492925961109635</v>
+        <v>2.593587462539723</v>
       </c>
     </row>
     <row r="48">
@@ -2208,31 +2208,31 @@
         </is>
       </c>
       <c r="C48" s="5" t="n">
-        <v>4.742182539835505</v>
+        <v>4.522429266436781</v>
       </c>
       <c r="D48" s="5" t="n">
-        <v>6.800609883499723</v>
+        <v>6.673630637380593</v>
       </c>
       <c r="E48" s="5" t="n">
-        <v>6.803404465520179</v>
+        <v>7.191873532854374</v>
       </c>
       <c r="F48" s="5" t="n">
-        <v>6.042701346877525</v>
+        <v>6.381793502016793</v>
       </c>
       <c r="G48" s="5" t="n">
-        <v>9.218722350862995</v>
+        <v>8.76260419969582</v>
       </c>
       <c r="H48" s="5" t="n">
-        <v>9.953269342622095</v>
+        <v>10.01037508628544</v>
       </c>
       <c r="I48" s="5" t="n">
-        <v>4.632835200169207</v>
+        <v>4.44519704645427</v>
       </c>
       <c r="J48" s="5" t="n">
-        <v>6.955647774727636</v>
+        <v>6.639439576521959</v>
       </c>
       <c r="K48" s="5" t="n">
-        <v>7.557601453668108</v>
+        <v>7.391369984769231</v>
       </c>
     </row>
     <row r="49">
@@ -2258,7 +2258,7 @@
         <v>0.3485261036782905</v>
       </c>
       <c r="H49" s="6" t="n">
-        <v>0.4623573577185643</v>
+        <v>0.4623573577185647</v>
       </c>
       <c r="I49" s="6" t="n">
         <v>0.1322009328051223</v>
@@ -2278,31 +2278,31 @@
         </is>
       </c>
       <c r="C50" s="6" t="n">
-        <v>-0.1651759355323852</v>
+        <v>-0.1593204317461928</v>
       </c>
       <c r="D50" s="6" t="n">
-        <v>-0.04043276928384751</v>
+        <v>-0.05730682805670389</v>
       </c>
       <c r="E50" s="6" t="n">
-        <v>-0.006325682425889553</v>
+        <v>-0.02646194443639329</v>
       </c>
       <c r="F50" s="6" t="n">
-        <v>-0.09509621783546722</v>
+        <v>-0.06570438679713171</v>
       </c>
       <c r="G50" s="6" t="n">
-        <v>0.05319658626911278</v>
+        <v>0.07384651617304494</v>
       </c>
       <c r="H50" s="6" t="n">
-        <v>0.1789572451292872</v>
+        <v>0.1844593425726584</v>
       </c>
       <c r="I50" s="6" t="n">
-        <v>-0.04976962513176487</v>
+        <v>-0.06538974602661449</v>
       </c>
       <c r="J50" s="6" t="n">
-        <v>0.1028360846835816</v>
+        <v>0.08425732277205435</v>
       </c>
       <c r="K50" s="6" t="n">
-        <v>0.1660609780296629</v>
+        <v>0.170565140087146</v>
       </c>
     </row>
     <row r="51">
@@ -2313,31 +2313,31 @@
         </is>
       </c>
       <c r="C51" s="6" t="n">
-        <v>0.3959338497158317</v>
+        <v>0.3871614008212237</v>
       </c>
       <c r="D51" s="6" t="n">
-        <v>0.5657894999299894</v>
+        <v>0.5571839556461975</v>
       </c>
       <c r="E51" s="6" t="n">
-        <v>0.5839997863827709</v>
+        <v>0.6170837434012005</v>
       </c>
       <c r="F51" s="6" t="n">
-        <v>0.4771698010826746</v>
+        <v>0.5163853549031633</v>
       </c>
       <c r="G51" s="6" t="n">
-        <v>0.7448939169356288</v>
+        <v>0.6966523210330717</v>
       </c>
       <c r="H51" s="6" t="n">
-        <v>0.8000983250474153</v>
+        <v>0.82277955698089</v>
       </c>
       <c r="I51" s="6" t="n">
-        <v>0.3695871397153903</v>
+        <v>0.3448312349346053</v>
       </c>
       <c r="J51" s="6" t="n">
-        <v>0.550907935438637</v>
+        <v>0.5173676357430481</v>
       </c>
       <c r="K51" s="6" t="n">
-        <v>0.5963314855219974</v>
+        <v>0.5757648950160349</v>
       </c>
     </row>
     <row r="52">
@@ -2358,7 +2358,7 @@
         <v>2.109172418886396</v>
       </c>
       <c r="E52" s="5" t="n">
-        <v>6.106990185682795</v>
+        <v>6.106990185682792</v>
       </c>
       <c r="F52" s="5" t="n">
         <v>4.017065068442466</v>
@@ -2367,7 +2367,7 @@
         <v>0.8062077466621825</v>
       </c>
       <c r="H52" s="5" t="n">
-        <v>3.994630808927385</v>
+        <v>3.994630808927382</v>
       </c>
       <c r="I52" s="5" t="n">
         <v>3.909564523786749</v>
@@ -2376,7 +2376,7 @@
         <v>1.455758152172099</v>
       </c>
       <c r="K52" s="5" t="n">
-        <v>5.045724334104659</v>
+        <v>5.045724334104662</v>
       </c>
     </row>
     <row r="53">
@@ -2387,31 +2387,31 @@
         </is>
       </c>
       <c r="C53" s="5" t="n">
-        <v>1.917843992073079</v>
+        <v>2.016492436322108</v>
       </c>
       <c r="D53" s="5" t="n">
-        <v>0.5160517245646238</v>
+        <v>0.5442336286613891</v>
       </c>
       <c r="E53" s="5" t="n">
-        <v>4.221363321373918</v>
+        <v>4.191868117202637</v>
       </c>
       <c r="F53" s="5" t="n">
-        <v>2.081787855133681</v>
+        <v>2.1678759642371</v>
       </c>
       <c r="G53" s="5" t="n">
-        <v>-1.135066501181746</v>
+        <v>-1.10161689703012</v>
       </c>
       <c r="H53" s="5" t="n">
-        <v>2.369380903573775</v>
+        <v>2.472250890042214</v>
       </c>
       <c r="I53" s="5" t="n">
-        <v>2.649545814948759</v>
+        <v>2.560351068650223</v>
       </c>
       <c r="J53" s="5" t="n">
-        <v>0.180033380061849</v>
+        <v>0.2177873574330614</v>
       </c>
       <c r="K53" s="5" t="n">
-        <v>3.75964833548788</v>
+        <v>3.830893978854848</v>
       </c>
     </row>
     <row r="54">
@@ -2422,31 +2422,31 @@
         </is>
       </c>
       <c r="C54" s="5" t="n">
-        <v>5.397228475478099</v>
+        <v>5.641631108770806</v>
       </c>
       <c r="D54" s="5" t="n">
-        <v>3.860698686546864</v>
+        <v>3.789057833651126</v>
       </c>
       <c r="E54" s="5" t="n">
-        <v>7.790738655114207</v>
+        <v>7.762978347091555</v>
       </c>
       <c r="F54" s="5" t="n">
-        <v>5.90307968289854</v>
+        <v>5.904923061597893</v>
       </c>
       <c r="G54" s="5" t="n">
-        <v>2.750475400756361</v>
+        <v>2.614450140260955</v>
       </c>
       <c r="H54" s="5" t="n">
-        <v>5.816515110046691</v>
+        <v>5.761638640367934</v>
       </c>
       <c r="I54" s="5" t="n">
-        <v>5.263147487804256</v>
+        <v>5.261817443445263</v>
       </c>
       <c r="J54" s="5" t="n">
-        <v>2.734541260902571</v>
+        <v>2.732351596216515</v>
       </c>
       <c r="K54" s="5" t="n">
-        <v>6.244818235300804</v>
+        <v>6.324723085015593</v>
       </c>
     </row>
     <row r="55">
@@ -2463,7 +2463,7 @@
         <v>0.1617618545331121</v>
       </c>
       <c r="E55" s="6" t="n">
-        <v>0.468372357425926</v>
+        <v>0.4683723574259258</v>
       </c>
       <c r="F55" s="6" t="n">
         <v>0.236984352257858</v>
@@ -2472,7 +2472,7 @@
         <v>0.04756174405262588</v>
       </c>
       <c r="H55" s="6" t="n">
-        <v>0.2356608565292644</v>
+        <v>0.2356608565292643</v>
       </c>
       <c r="I55" s="6" t="n">
         <v>0.2602052826489356</v>
@@ -2481,7 +2481,7 @@
         <v>0.09688955359343619</v>
       </c>
       <c r="K55" s="6" t="n">
-        <v>0.3358236239704353</v>
+        <v>0.3358236239704355</v>
       </c>
     </row>
     <row r="56">
@@ -2492,31 +2492,31 @@
         </is>
       </c>
       <c r="C56" s="6" t="n">
-        <v>0.1379797521470081</v>
+        <v>0.1431476275807894</v>
       </c>
       <c r="D56" s="6" t="n">
-        <v>0.0351368086344231</v>
+        <v>0.03713904494802373</v>
       </c>
       <c r="E56" s="6" t="n">
-        <v>0.3001451864692168</v>
+        <v>0.303325263589886</v>
       </c>
       <c r="F56" s="6" t="n">
-        <v>0.1181442816013213</v>
+        <v>0.1191766965270199</v>
       </c>
       <c r="G56" s="6" t="n">
-        <v>-0.06558655597495749</v>
+        <v>-0.06460139165992416</v>
       </c>
       <c r="H56" s="6" t="n">
-        <v>0.1333595131977372</v>
+        <v>0.1397689236229112</v>
       </c>
       <c r="I56" s="6" t="n">
-        <v>0.1681843786684233</v>
+        <v>0.1623405996573943</v>
       </c>
       <c r="J56" s="6" t="n">
-        <v>0.01127840397984589</v>
+        <v>0.01418840057339603</v>
       </c>
       <c r="K56" s="6" t="n">
-        <v>0.2398280450808448</v>
+        <v>0.2444756770003871</v>
       </c>
     </row>
     <row r="57">
@@ -2527,31 +2527,31 @@
         </is>
       </c>
       <c r="C57" s="6" t="n">
-        <v>0.4402979759546058</v>
+        <v>0.4694980573324662</v>
       </c>
       <c r="D57" s="6" t="n">
-        <v>0.3127048759308074</v>
+        <v>0.3094213002252881</v>
       </c>
       <c r="E57" s="6" t="n">
-        <v>0.6410004844983983</v>
+        <v>0.633255486569394</v>
       </c>
       <c r="F57" s="6" t="n">
-        <v>0.3698674298215925</v>
+        <v>0.3669530795022897</v>
       </c>
       <c r="G57" s="6" t="n">
-        <v>0.1687939658911373</v>
+        <v>0.1649543454891493</v>
       </c>
       <c r="H57" s="6" t="n">
-        <v>0.3704812119638797</v>
+        <v>0.3586779096513421</v>
       </c>
       <c r="I57" s="6" t="n">
-        <v>0.3709232468500352</v>
+        <v>0.3630978316780908</v>
       </c>
       <c r="J57" s="6" t="n">
-        <v>0.1903541015454612</v>
+        <v>0.1882988059506349</v>
       </c>
       <c r="K57" s="6" t="n">
-        <v>0.4353560603773602</v>
+        <v>0.4386869422613088</v>
       </c>
     </row>
     <row r="58">
